--- a/F_dataset/DUD-E/CSF1R/CSF1R_preprocessing/CSF1R_g1.xlsx
+++ b/F_dataset/DUD-E/CSF1R/CSF1R_preprocessing/CSF1R_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F512CDD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B86CE40&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528FF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FF40&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528FED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FED0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528FE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FE60&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528FDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FDF0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528FD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FD80&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528FD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FD10&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528FCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FCA0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528FC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FBC0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528FB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FB50&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528FAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FAE0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528FA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FA70&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528FA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FA00&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F990&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F8B0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F840&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F7D0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F760&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F6F0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F680&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F610&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F5A0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F530&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F4C0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F450&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F3E0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F290&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F220&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F1B0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F0D0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528F060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F060&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528EFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EFF0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528EF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EF80&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528EF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EF10&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528EEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EEA0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528EE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EE30&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528EDC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EDC0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528ED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97ED50&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528ECE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97ECE0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528EC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EC70&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528EC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EC00&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528EB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EB90&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528EB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EB20&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528EAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EAB0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528EA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EA40&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528E9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E9D0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528E960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E960&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528E8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E8F0&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528E880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E880&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F528E810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E810&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">

--- a/F_dataset/DUD-E/CSF1R/CSF1R_preprocessing/CSF1R_g1.xlsx
+++ b/F_dataset/DUD-E/CSF1R/CSF1R_preprocessing/CSF1R_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B86CE40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE730&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL488840</t>
+          <t>CHEMBL1171607</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cc1cccc(C)c1/C=C/n1cnc2c(Nc3ccc(P(C)(C)=O)cc3)ncnc21</t>
+          <t>CN1CC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCC3)c2)CN(C)S1(=O)=O</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cc1cccc(C)c1/C=C/n1cnc2c(Nc3ccc(P(C)(C)=O)cc3)ncnc21</t>
+          <t>CN1CC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCC3)c2)CN(C)S1(=O)=O</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>417.45</v>
+        <v>454.56</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>72.7</v>
+        <v>122.19</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE5E0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL522892</t>
+          <t>CHEMBL255955</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc3nc(-c4c(N)c5c(F)cccc5[nH]c4=O)[nH]c3c2)CC1</t>
+          <t>Nc1n[nH]c2nccc(-c3ccc(NC(=O)Nc4cccc(C(F)(F)F)c4)cc3)c12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc3nc(-c4c(N)c5c(F)cccc5[nH]c4=O)[nH]c3c2)CC1</t>
+          <t>Nc1n[nH]c2nccc(-c3ccc(NC(=O)Nc4cccc(C(F)(F)F)c4)cc3)c12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>392.44</v>
+        <v>412.38</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>94.04000000000001</v>
+        <v>108.72</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE570&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL124660</t>
+          <t>CHEMBL488840</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COc1cc2c(N3CCN(C(=O)Nc4ccc(OC(C)C)cc4)CC3)ncnc2cc1OCCCN1CCCCC1</t>
+          <t>Cc1cccc(C)c1/C=C/n1cnc2c(Nc3ccc(P(C)(C)=O)cc3)ncnc21</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COc1cc2c(N3CCN(C(=O)Nc4ccc(OC(C)C)cc4)CC3)ncnc2cc1OCCCN1CCCCC1</t>
+          <t>Cc1cccc(C)c1/C=C/n1cnc2c(Nc3ccc(P(C)(C)=O)cc3)ncnc21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>562.72</v>
+        <v>417.45</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>92.29000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE500&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL390156</t>
+          <t>CHEMBL522892</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CN1CCN(Cc2ccc3c(c2)Cc2c(-c4csc(C#CCOc5ccccc5)c4)n[nH]c2-3)CC1</t>
+          <t>CN1CCN(c2ccc3nc(-c4c(N)c5c(F)cccc5[nH]c4=O)[nH]c3c2)CC1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CN1CCN(Cc2ccc3c(c2)Cc2c(-c4csc(C#CCOc5ccccc5)c4)n[nH]c2-3)CC1</t>
+          <t>CN1CCN(c2ccc3nc(-c4c(N)c5c(F)cccc5[nH]c4=O)[nH]c3c2)CC1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>480.64</v>
+        <v>392.44</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>44.39</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE490&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL575925</t>
+          <t>CHEMBL573577</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(NC(=O)c3cn4c(n3)sc3ccccc34)cc2)no1</t>
+          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c(C)c1C(=O)NCC(O)CN1CCOCC1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(NC(=O)c3cn4c(n3)sc3ccccc34)cc2)no1</t>
+          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c(C)c1C(=O)NCC(O)CN1CCOCC1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>474.55</v>
+        <v>442.49</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>113.56</v>
+        <v>106.69</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE420&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL518051</t>
+          <t>CHEMBL124660</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>O=C(Nc1cccc(Cl)c1)Nc1ncc(CCNc2ncnc3ccsc23)s1</t>
+          <t>COc1cc2c(N3CCN(C(=O)Nc4ccc(OC(C)C)cc4)CC3)ncnc2cc1OCCCN1CCCCC1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O=C(Nc1cccc(Cl)c1)Nc1ncc(CCNc2ncnc3ccsc23)s1</t>
+          <t>COc1cc2c(N3CCN(C(=O)Nc4ccc(OC(C)C)cc4)CC3)ncnc2cc1OCCCN1CCCCC1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>430.95</v>
+        <v>562.72</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>91.83</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE340&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL101253</t>
+          <t>CHEMBL574738</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Clc1ccc(Nc2nnc(Cc3ccncc3)c3ccccc23)cc1</t>
+          <t>CCN1CCN(Cc2ccc(NC(=O)Nc3ccc(Oc4cc(NC)ncn4)cc3)cc2C(F)(F)F)CC1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Clc1ccc(Nc2nnc(Cc3ccncc3)c3ccccc23)cc1</t>
+          <t>CCN1CCN(Cc2ccc(NC(=O)Nc3ccc(Oc4cc(NC)ncn4)cc3)cc2C(F)(F)F)CC1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>346.82</v>
+        <v>529.5700000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>50.7</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE2D0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL1336</t>
+          <t>CHEMBL477772</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CNC(=O)c1cc(Oc2ccc(NC(=O)Nc3ccc(Cl)c(C(F)(F)F)c3)cc2)ccn1</t>
+          <t>Cc1ccc(Nc2nccc(N(C)c3ccc4c(C)n(C)nc4c3)n2)cc1S(N)(=O)=O</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CNC(=O)c1cc(Oc2ccc(NC(=O)Nc3ccc(Cl)c(C(F)(F)F)c3)cc2)ccn1</t>
+          <t>Cc1ccc(Nc2nccc(N(C)c3ccc4c(C)n(C)nc4c3)n2)cc1S(N)(=O)=O</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>464.83</v>
+        <v>437.53</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>92.34999999999999</v>
+        <v>119.03</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE260&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL454105</t>
+          <t>CHEMBL390156</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)Nc2cccc(C(F)(F)F)c2)cc1NC(=O)c1cccnc1</t>
+          <t>CN1CCN(Cc2ccc3c(c2)Cc2c(-c4csc(C#CCOc5ccccc5)c4)n[nH]c2-3)CC1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)Nc2cccc(C(F)(F)F)c2)cc1NC(=O)c1cccnc1</t>
+          <t>CN1CCN(Cc2ccc3c(c2)Cc2c(-c4csc(C#CCOc5ccccc5)c4)n[nH]c2-3)CC1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>399.37</v>
+        <v>480.64</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>71.09</v>
+        <v>44.39</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE1F0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL253968</t>
+          <t>CHEMBL575925</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>O=C(Cn1cc(Nc2nncc3cc(OCCCN4CCC[C@@H]4CO)ccc23)cn1)Nc1cccc(F)c1F</t>
+          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(NC(=O)c3cn4c(n3)sc3ccccc34)cc2)no1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>O=C(Cn1cc(Nc2nncc3cc(OCCCN4CCC[C@@H]4CO)ccc23)cn1)Nc1cccc(F)c1F</t>
+          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(NC(=O)c3cn4c(n3)sc3ccccc34)cc2)no1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>537.5700000000001</v>
+        <v>474.55</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>117.43</v>
+        <v>113.56</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE180&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL553523</t>
+          <t>CHEMBL518051</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COc1cc2ncnc(N(C)c3cccc(C)c3)c2cc1OC</t>
+          <t>O=C(Nc1cccc(Cl)c1)Nc1ncc(CCNc2ncnc3ccsc23)s1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COc1cc2ncnc(N(C)c3cccc(C)c3)c2cc1OC</t>
+          <t>O=C(Nc1cccc(Cl)c1)Nc1ncc(CCNc2ncnc3ccsc23)s1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>309.37</v>
+        <v>430.95</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>47.48</v>
+        <v>91.83</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE110&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL258365</t>
+          <t>CHEMBL101253</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1nc2cnc(Nc3ccccc3)nc2n(-c2ccccc2)c1=O</t>
+          <t>Clc1ccc(Nc2nnc(Cc3ccncc3)c3ccccc23)cc1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1nc2cnc(Nc3ccccc3)nc2n(-c2ccccc2)c1=O</t>
+          <t>Clc1ccc(Nc2nnc(Cc3ccncc3)c3ccccc23)cc1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,16 +1391,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>387.4</v>
+        <v>346.82</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
@@ -1409,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>99</v>
+        <v>50.7</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE0A0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL460472</t>
+          <t>CHEMBL1336</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>COc1ccc2c(Oc3ccc(NC(=O)c4c(C)n(CC(C)(C)O)n(-c5ccccc5)c4=O)nc3)ccnc2c1</t>
+          <t>CNC(=O)c1cc(Oc2ccc(NC(=O)Nc3ccc(Cl)c(C(F)(F)F)c3)cc2)ccn1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COc1ccc2c(Oc3ccc(NC(=O)c4c(C)n(CC(C)(C)O)n(-c5ccccc5)c4=O)nc3)ccnc2c1</t>
+          <t>CNC(=O)c1cc(Oc2ccc(NC(=O)Nc3ccc(Cl)c(C(F)(F)F)c3)cc2)ccn1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>539.59</v>
+        <v>464.83</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>120.5</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EE030&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL558752</t>
+          <t>CHEMBL429743</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cn1c(Nc2ccc(C(F)(F)F)cc2)nc2cc(Oc3ccnc(-c4ncc(C(F)(F)F)[nH]4)c3)ccc21</t>
+          <t>COc1cc2nccc(Oc3ccc4c(C(=O)Nc5ccc(Cl)cc5)cccc4c3)c2cc1OC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cn1c(Nc2ccc(C(F)(F)F)cc2)nc2cc(Oc3ccnc(-c4ncc(C(F)(F)F)[nH]4)c3)ccc21</t>
+          <t>COc1cc2nccc(Oc3ccc4c(C(=O)Nc5ccc(Cl)cc5)cccc4c3)c2cc1OC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>518.42</v>
+        <v>484.94</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>80.65000000000001</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDFC0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL250187</t>
+          <t>CHEMBL253968</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccccc1N1C=CC=CC=C1)c1ccc([N+](=O)[O-])o1</t>
+          <t>O=C(Cn1cc(Nc2nncc3cc(OCCCN4CCC[C@@H]4CO)ccc23)cn1)Nc1cccc(F)c1F</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccccc1N1C=CC=CC=C1)c1ccc([N+](=O)[O-])o1</t>
+          <t>O=C(Cn1cc(Nc2nncc3cc(OCCCN4CCC[C@@H]4CO)ccc23)cn1)Nc1cccc(F)c1F</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>323.31</v>
+        <v>537.5700000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>88.62</v>
+        <v>117.43</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDF50&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL406375</t>
+          <t>CHEMBL1088598</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>c1ccc(-c2n[nH]c3c2oc2ccccc23)cc1</t>
+          <t>Nc1ncc(-c2ccc(C(=O)N3CCC[C@H]3CN3CCCC3)cc2)nc1NCc1c(Cl)cccc1Cl</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>c1ccc(-c2n[nH]c3c2oc2ccccc23)cc1</t>
+          <t>Nc1ncc(-c2ccc(C(=O)N3CCC[C@H]3CN3CCCC3)cc2)nc1NCc1c(Cl)cccc1Cl</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>234.26</v>
+        <v>525.48</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>41.82</v>
+        <v>87.38</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDEE0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL237570</t>
+          <t>CHEMBL1087661</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COc1ccc2cc(-c3c(-c4ccncc4)nc(-c4ccc(S(C)=O)cc4C)n3C)ccc2c1</t>
+          <t>COc1ccc(COc2ccc(COc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COc1ccc2cc(-c3c(-c4ccncc4)nc(-c4ccc(S(C)=O)cc4C)n3C)ccc2c1</t>
+          <t>COc1ccc(COc2ccc(COc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>467.59</v>
+        <v>447.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>57.01</v>
+        <v>106.54</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDE70&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL526639</t>
+          <t>CHEMBL491429</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1ccc2ccncc2c1</t>
+          <t>O=C(Nc1cncnc1)c1c(Cl)ccc2c(Nc3cccc(C(F)(F)F)c3)noc12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1ccc2ccncc2c1</t>
+          <t>O=C(Nc1cncnc1)c1c(Cl)ccc2c(Nc3cccc(C(F)(F)F)c3)noc12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>302.38</v>
+        <v>433.78</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>41.99</v>
+        <v>92.94</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDE00&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL514499</t>
+          <t>CHEMBL231568</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(C(N)=O)s3)c2cc1OC</t>
+          <t>CNC(=O)c1cc(Oc2ccc3oc(Nc4ccc(Cl)c(OC[C@@H]5CCCN5C)c4)nc3c2)ccn1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(C(N)=O)s3)c2cc1OC</t>
+          <t>CNC(=O)c1cc(Oc2ccc3oc(Nc4ccc(Cl)c(OC[C@@H]5CCCN5C)c4)nc3c2)ccn1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>477.46</v>
+        <v>507.98</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>88.59999999999999</v>
+        <v>101.75</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDD20&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL261849</t>
+          <t>CHEMBL255213</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,44 +1916,44 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COc1ccc(COc2ccc(Cc3cnc(N)nc3N)cc2OC)cc1</t>
+          <t>CCc1ccc(-c2c(-c3cc(C)no3)c(=O)[nH]c3ccc(Cl)cc23)cc1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COc1ccc(COc2ccc(Cc3cnc(N)nc3N)cc2OC)cc1</t>
+          <t>CCc1ccc(-c2c(-c3cc(C)no3)c(=O)[nH]c3ccc(Cl)cc23)cc1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>366.42</v>
+        <v>364.83</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>105.51</v>
+        <v>58.89</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDCB0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL404367</t>
+          <t>CHEMBL136011</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,44 +1984,44 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cc1cccc(NC(=O)Nc2ccc(-c3cncc4c3c(N)nn4C)cc2)c1</t>
+          <t>Cc1cccc(N(C)c2[nH]cnc3nncc2-3)c1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cc1cccc(NC(=O)Nc2ccc(-c3cncc4c3c(N)nn4C)cc2)c1</t>
+          <t>Cc1cccc(N(C)c2[nH]cnc3nncc2-3)c1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>372.43</v>
+        <v>239.28</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>97.86</v>
+        <v>57.7</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDC40&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL461573</t>
+          <t>CHEMBL553523</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,32 +2052,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cc1cc(C)cc(C(=O)Nc2ccc(Cl)c(C(=O)Nc3cncs3)c2)c1</t>
+          <t>COc1cc2ncnc(N(C)c3cccc(C)c3)c2cc1OC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cc1cc(C)cc(C(=O)Nc2ccc(Cl)c(C(=O)Nc3cncs3)c2)c1</t>
+          <t>COc1cc2ncnc(N(C)c3cccc(C)c3)c2cc1OC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>385.88</v>
+        <v>309.37</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -2089,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>71.09</v>
+        <v>47.48</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDBD0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL514619</t>
+          <t>CHEMBL258365</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,44 +2120,44 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cc1cncc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Br)c3)c2)c1</t>
+          <t>CCOC(=O)c1nc2cnc(Nc3ccccc3)nc2n(-c2ccccc2)c1=O</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cc1cncc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Br)c3)c2)c1</t>
+          <t>CCOC(=O)c1nc2cnc(Nc3ccccc3)nc2n(-c2ccccc2)c1=O</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>411.3</v>
+        <v>387.4</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>66.91</v>
+        <v>99</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDB60&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL256950</t>
+          <t>CHEMBL460472</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,44 +2188,44 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N#Cc1cnc(C(=O)Nc2ccc(C3CCNCC3)cc2C2=CCCC2)[nH]1</t>
+          <t>COc1ccc2c(Oc3ccc(NC(=O)c4c(C)n(CC(C)(C)O)n(-c5ccccc5)c4=O)nc3)ccnc2c1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>N#Cc1cnc(C(=O)Nc2ccc(C3CCNCC3)cc2C2=CCCC2)[nH]1</t>
+          <t>COc1ccc2c(Oc3ccc(NC(=O)c4c(C)n(CC(C)(C)O)n(-c5ccccc5)c4=O)nc3)ccnc2c1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>361.45</v>
+        <v>539.59</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>93.59999999999999</v>
+        <v>120.5</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDAF0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL391691</t>
+          <t>CHEMBL558752</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,44 +2256,44 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)c1cccc(-c2cnc(N)c3c(-c4ccc(F)c(Cl)c4)csc23)c1</t>
+          <t>Cn1c(Nc2ccc(C(F)(F)F)cc2)nc2cc(Oc3ccnc(-c4ncc(C(F)(F)F)[nH]4)c3)ccc21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)c1cccc(-c2cnc(N)c3c(-c4ccc(F)c(Cl)c4)csc23)c1</t>
+          <t>Cn1c(Nc2ccc(C(F)(F)F)cc2)nc2cc(Oc3ccnc(-c4ncc(C(F)(F)F)[nH]4)c3)ccc21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>432.93</v>
+        <v>518.42</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>73.05</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDA80&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL398933</t>
+          <t>CHEMBL406375</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,44 +2324,44 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N#Cc1c[nH]c(C(=O)Nc2ccccc2N2CCCCC2)c1</t>
+          <t>c1ccc(-c2n[nH]c3c2oc2ccccc23)cc1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>N#Cc1c[nH]c(C(=O)Nc2ccccc2N2CCCCC2)c1</t>
+          <t>c1ccc(-c2n[nH]c3c2oc2ccccc23)cc1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>294.36</v>
+        <v>234.26</v>
       </c>
       <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>71.92</v>
+        <v>41.82</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0EDA10&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL497353</t>
+          <t>CHEMBL153843</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,44 +2392,44 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1-c1ccc2c(N)noc2c1</t>
+          <t>O=C(Nc1cccc(C(F)(F)F)c1)c1ccccc1NCc1ccncc1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1-c1ccc2c(N)noc2c1</t>
+          <t>O=C(Nc1cccc(C(F)(F)F)c1)c1ccccc1NCc1ccncc1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>455.56</v>
+        <v>371.36</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
         <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>87.63</v>
+        <v>54.02</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED930&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL347537</t>
+          <t>CHEMBL237570</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,35 +2460,35 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>O=C(Nc1cccc(-c2cncc3ccccc23)c1)c1ccccc1NCc1ccncc1</t>
+          <t>COc1ccc2cc(-c3c(-c4ccncc4)nc(-c4ccc(S(C)=O)cc4C)n3C)ccc2c1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O=C(Nc1cccc(-c2cncc3ccccc23)c1)c1ccccc1NCc1ccncc1</t>
+          <t>COc1ccc2cc(-c3c(-c4ccncc4)nc(-c4ccc(S(C)=O)cc4C)n3C)ccc2c1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>430.51</v>
+        <v>467.59</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>5</v>
@@ -2497,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>66.91</v>
+        <v>57.01</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED8C0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL1088040</t>
+          <t>CHEMBL273011</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,44 +2528,44 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cn1cc(-c2cnc(N)c(NCc3c(Cl)cccc3Cl)n2)cn1</t>
+          <t>Cn1cnc(-c2c(-c3ccccc3)c3cc(C#N)ccc3[nH]c2=O)c1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cn1cc(-c2cnc(N)c(NCc3c(Cl)cccc3Cl)n2)cn1</t>
+          <t>Cn1cnc(-c2c(-c3ccccc3)c3cc(C#N)ccc3[nH]c2=O)c1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>349.23</v>
+        <v>326.36</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4</v>
-      </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>81.65000000000001</v>
+        <v>74.47</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED7E0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL523559</t>
+          <t>CHEMBL514499</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,44 +2596,44 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cc1nnc(-c2ccc(-c3cc(C(=O)Nc4cccc(N5CCOCC5)c4)ccc3C)c(C)c2)o1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cc1nnc(-c2ccc(-c3cc(C(=O)Nc4cccc(N5CCOCC5)c4)ccc3C)c(C)c2)o1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>468.56</v>
+        <v>477.46</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>80.48999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97F060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED770&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL401738</t>
+          <t>CHEMBL461365</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cc1cc(-c2c(-c3ccccc3)c3cc(Cl)ccc3[nH]c2=O)[nH]n1</t>
+          <t>O=C(Nc1ccc(Cl)c(C(=O)Nc2cccnc2)c1)c1ccc(Cl)c(Cl)c1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cc1cc(-c2c(-c3ccccc3)c3cc(Cl)ccc3[nH]c2=O)[nH]n1</t>
+          <t>O=C(Nc1ccc(Cl)c(C(=O)Nc2cccnc2)c1)c1ccc(Cl)c(Cl)c1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>335.79</v>
+        <v>420.68</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>61.54</v>
+        <v>71.09</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED700&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL480815</t>
+          <t>CHEMBL196363</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CCOc1cc2ncc(C(N)=O)c(Nc3cccc(Cl)c3Cl)c2cc1NCCN1CCCCC1</t>
+          <t>Cc1cccc(NC(=O)Nc2ccc(-c3csc4ncnc(N)c34)cc2)c1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CCOc1cc2ncc(C(N)=O)c(Nc3cccc(Cl)c3Cl)c2cc1NCCN1CCCCC1</t>
+          <t>Cc1cccc(NC(=O)Nc2ccc(-c3csc4ncnc(N)c34)cc2)c1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2747,29 +2747,29 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>502.45</v>
+        <v>375.46</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>92.51000000000001</v>
+        <v>92.93000000000001</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED690&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL256893</t>
+          <t>CHEMBL223360</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CN1CCN(Cc2ccc(Nc3ncc4c(=O)c(C(N)=O)cn(-c5ccc6c(c5)CCC6)c4n3)cc2)CC1</t>
+          <t>Cc1ccc(F)c(NC(=O)Nc2ccc(-c3cccc4[nH]nc(N)c34)cc2)c1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CN1CCN(Cc2ccc(Nc3ncc4c(=O)c(C(N)=O)cn(-c5ccc6c(c5)CCC6)c4n3)cc2)CC1</t>
+          <t>Cc1ccc(F)c(NC(=O)Nc2ccc(-c3cccc4[nH]nc(N)c34)cc2)c1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2815,29 +2815,29 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>509.61</v>
+        <v>375.41</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>109.38</v>
+        <v>95.83</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED620&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL265432</t>
+          <t>CHEMBL521887</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(NC(=O)c3ccc(C#N)o3)c(C3=CCCCC3)c2)CC1</t>
+          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1-c1ccc2ccncc2c1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(NC(=O)c3ccc(C#N)o3)c(C3=CCCCC3)c2)CC1</t>
+          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1-c1ccc2ccncc2c1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2883,29 +2883,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>390.49</v>
+        <v>450.59</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>72.51000000000001</v>
+        <v>48.47</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED5B0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL248933</t>
+          <t>CHEMBL490080</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>COc1ccc(Nc2c(C(N)=O)cnc3cc(-c4ccncc4)ccc23)cc1Cl</t>
+          <t>CONC(=O)c1cn(C2CCCCC2)c2nc(Nc3ccc(CCN4CCCC4)cc3)ncc2c1=O</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>COc1ccc(Nc2c(C(N)=O)cnc3cc(-c4ccncc4)ccc23)cc1Cl</t>
+          <t>CONC(=O)c1cn(C2CCCCC2)c2nc(Nc3ccc(CCN4CCCC4)cc3)ncc2c1=O</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2951,66 +2951,40 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>404.86</v>
+        <v>490.61</v>
       </c>
       <c r="H37" t="n">
         <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>90.13</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>32</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>CHEMBL925269</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Inhibition of cfms</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>101.38</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED540&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3022,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL3109344</t>
+          <t>CHEMBL514619</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3030,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>COCCOc1ccn2c(-c3ccc4cccc(O[C@H]5CCCNC5)c4n3)cnc2c1</t>
+          <t>Cc1cncc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Br)c3)c2)c1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>COCCOc1ccn2c(-c3ccc4cccc(O[C@H]5CCCNC5)c4n3)cnc2c1</t>
+          <t>Cc1cncc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Br)c3)c2)c1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3045,66 +3019,40 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>418.5</v>
+        <v>411.3</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>69.91</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>21</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>CHEMBL3111863</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Inhibition of cFMS (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>66.91</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EDC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED4D0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3116,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL3586404</t>
+          <t>CHEMBL450914</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3124,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CO[C@H]1CC[C@H](N2C(=O)CNc3ncc(-c4ccc(C(C)(C)O)nc4)nc32)CC1</t>
+          <t>CCN1CCCC(O)(c2cccc(Nc3ncc4c(=O)c(C(=O)NOC)cn(-c5cnc6c(c5)CCC6)c4n3)c2)C1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CO[C@H]1CC[C@H](N2C(=O)CNc3ncc(-c4ccc(C(C)(C)O)nc4)nc32)CC1</t>
+          <t>CCN1CCCC(O)(c2cccc(Nc3ncc4c(=O)c(C(=O)NOC)cn(-c5cnc6c(c5)CCC6)c4n3)c2)C1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3139,66 +3087,40 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>397.48</v>
+        <v>555.64</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
+        <v>9</v>
+      </c>
+      <c r="J39" t="n">
         <v>7</v>
       </c>
-      <c r="J39" t="n">
-        <v>4</v>
-      </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>100.47</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>28</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>CHEMBL3587471</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Inhibition of cFMS (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>134.5</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97ED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED3F0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3210,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL3616990</t>
+          <t>CHEMBL507803</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3218,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cc1ccccc1C(=O)Nc1cnoc1C</t>
+          <t>Cc1ccc(NC(=O)c2cccc(C(F)(F)F)c2)cc1NC(=O)c1cccnc1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cc1ccccc1C(=O)Nc1cnoc1C</t>
+          <t>Cc1ccc(NC(=O)c2cccc(C(F)(F)F)c2)cc1NC(=O)c1cccnc1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3233,66 +3155,40 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>216.24</v>
+        <v>399.37</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>55.13</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>216</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>CHEMBL3620030</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS (unknown origin) after 40 mins by scintillation counting analysis</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>71.09</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97ECE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED380&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3304,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL4473704</t>
+          <t>CHEMBL480618</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3312,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>COc1cc(C2CN(C(=O)c3cc(OCCN4CCOCC4)ccn3)C2)ccc1OCc1ccc(C2CC2)cc1</t>
+          <t>COc1cc2c(Nc3ccc(F)cc3F)c(C(N)=O)cnc2cc1N1CCN(C)CC1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>COc1cc(C2CN(C(=O)c3cc(OCCN4CCOCC4)ccn3)C2)ccc1OCc1ccc(C2CC2)cc1</t>
+          <t>COc1cc2c(Nc3ccc(F)cc3F)c(C(N)=O)cnc2cc1N1CCN(C)CC1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3327,66 +3223,40 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>543.66</v>
+        <v>427.46</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
         <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>73.36</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>12</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>CHEMBL4424848</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Inhibition of human CSF1R tyrosine kinase domain (538 to 972 residues) using Poly(Glu, Tyr)-biotinylated peptide as substrate preincubated for 5 mins followed by substrate addition and measured after 10 mins by HTRF assay</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>83.72</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED310&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3398,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL3301607</t>
+          <t>CHEMBL162</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3406,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>O=C(Nc1nc2cccc(-c3ccc(CN4CCS(=O)(=O)CC4)cc3)n2n1)C1CC1</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>O=C(Nc1nc2cccc(-c3ccc(CN4CCS(=O)(=O)CC4)cc3)n2n1)C1CC1</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3421,66 +3291,40 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>425.51</v>
+        <v>466.54</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>96.67</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>489</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>CHEMBL3382757</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Inhibition of human CSF1R (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>69.45</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED2A0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3492,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL3678305</t>
+          <t>CHEMBL480813</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3500,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2cnc3c(c2)ncn3Cc2ccc(OC(C)c3ccc(OC)nc3)c(OC)c2)cn1</t>
+          <t>COc1cc2c(Nc3cccc(Cl)c3Cl)c(C(N)=O)cnc2cc1NCCN1CCCCC1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2cnc3c(c2)ncn3Cc2ccc(OC(C)c3ccc(OC)nc3)c(OC)c2)cn1</t>
+          <t>COc1cc2c(Nc3cccc(Cl)c3Cl)c(C(N)=O)cnc2cc1NCCN1CCCCC1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3515,66 +3359,40 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>497.56</v>
+        <v>488.42</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
         <v>8</v>
       </c>
-      <c r="J43" t="n">
-        <v>9</v>
-      </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>93.41</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>103</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL3705886</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Reagents and consumables were purchased from Sigma Aldrich, Carna Biosciences, or Caliper Life Sciences. All assay reaction conditions for IC50 determinations were within the linear range with respect to time and enzyme concentration. In a 384 well polypropylene plate, c-FMS (0.14 nM, Carna 08-155) was pre-incubated in a 100 mM Hepes-NaOH pH 7.5 buffer containing 0.01% Triton X-100, 10 mM MgCl2, 0.1% BSA, 1 mM DTT, 10 uM sodium orthovanadate and 10 uM beta-glycerophosphate and compound with a concentration of 2.5% DMSO for 15 minutes at room temperature. The reaction was initiated with an equal volume of peptide substrate (Caliper Life Sciences catalog no. 760430) and ATP in the aforementioned buffer. The final concentrations in the reaction were 70 pM c-FMS, 1.5 uM peptide substrate and 500 uM ATP (ATP Km). The reaction was incubated at room temperature for 120 minutes and terminated with a buffer containing excess EDTA (100 mM Hepes-NaOH pH 7.5, 0.02% Brij, 0.1% CR-3.</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>92.51000000000001</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED230&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3586,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL4065693</t>
+          <t>CHEMBL391691</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3594,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C=CC(=O)Nc1cccc(CNc2cc(Nc3ccccc3)ncc2C(N)=O)c1</t>
+          <t>CS(=O)(=O)c1cccc(-c2cnc(N)c3c(-c4ccc(F)c(Cl)c4)csc23)c1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>C=CC(=O)Nc1cccc(CNc2cc(Nc3ccccc3)ncc2C(N)=O)c1</t>
+          <t>CS(=O)(=O)c1cccc(-c2cnc(N)c3c(-c4ccc(F)c(Cl)c4)csc23)c1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3609,66 +3427,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>387.44</v>
+        <v>432.93</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>109.14</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>180</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CHEMBL4047251</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS (unknown origin) by caliper assay</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>73.05</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED1C0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3680,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL5072178</t>
+          <t>CHEMBL398933</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3688,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cc1nn(CC(F)(F)F)cc1Nc1nccc(NCc2ccc(S(N)(=O)=O)cc2)n1</t>
+          <t>N#Cc1c[nH]c(C(=O)Nc2ccccc2N2CCCCC2)c1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cc1nn(CC(F)(F)F)cc1Nc1nccc(NCc2ccc(S(N)(=O)=O)cc2)n1</t>
+          <t>N#Cc1c[nH]c(C(=O)Nc2ccccc2N2CCCCC2)c1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3703,66 +3495,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>441.44</v>
+        <v>294.36</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
         <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>127.82</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>233</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CHEMBL5046585</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human FMS (538 to end residues) using KKKSPGEYVNIEFG as substrate measured after 40 mins in presence of [gamma33P]ATP by radiometric scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>71.92</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED150&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3774,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL5090643</t>
+          <t>CHEMBL257456</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3782,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3cc(NC(=O)Nc4cc(C(C)(C)C)on4)ccc32)c(C)c1NC(=O)CCN1CCN(C)CC1</t>
+          <t>O=c1[nH]c2ccc(Cl)cc2c(-c2ccccc2)c1-c1ccc[nH]1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3cc(NC(=O)Nc4cc(C(C)(C)C)on4)ccc32)c(C)c1NC(=O)CCN1CCN(C)CC1</t>
+          <t>O=c1[nH]c2ccc(Cl)cc2c(-c2ccccc2)c1-c1ccc[nH]1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3797,66 +3563,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>588.71</v>
+        <v>320.78</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>147.63</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL5057528</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin) incubated for 30 mins in presence of ATP by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>48.65</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97EA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED0E0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3868,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL3355065</t>
+          <t>CHEMBL251603</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3876,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CNc1cc2ccc(C#CCOc3ccc(CN4CCNCC4)c(C(F)(F)F)c3)cc2cn1</t>
+          <t>CN1CCN(c2ccccc2NC(=O)c2ccc([N+](=O)[O-])o2)CC1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CNc1cc2ccc(C#CCOc3ccc(CN4CCNCC4)c(C(F)(F)F)c3)cc2cn1</t>
+          <t>CN1CCN(c2ccccc2NC(=O)c2ccc([N+](=O)[O-])o2)CC1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3891,66 +3631,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>454.5</v>
+        <v>330.34</v>
       </c>
       <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
+      <c r="L47" t="n">
         <v>2</v>
       </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3</v>
-      </c>
       <c r="M47" t="n">
-        <v>49.42</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>46</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CHEMBL3379618</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>91.86</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED070&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3962,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL475251</t>
+          <t>CHEMBL523559</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3970,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc(F)c(Nc3ccc4c(n3)NC(=O)C(C)(C)O4)n2)cc(OC)c1OC</t>
+          <t>Cc1nnc(-c2ccc(-c3cc(C(=O)Nc4cccc(N5CCOCC5)c4)ccc3C)c(C)c2)o1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc(F)c(Nc3ccc4c(n3)NC(=O)C(C)(C)O4)n2)cc(OC)c1OC</t>
+          <t>Cc1nnc(-c2ccc(-c3cc(C(=O)Nc4cccc(N5CCOCC5)c4)ccc3C)c(C)c2)o1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3985,66 +3699,40 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>470.46</v>
+        <v>468.56</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>128.75</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>31</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL1908692</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Binding constant for CSF1R kinase domain</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>80.48999999999999</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ED000&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -4056,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL1908397</t>
+          <t>CHEMBL398237</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4064,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>O=C(c1ccc(/C=C/c2n[nH]c3ccccc23)cc1)N1CCNCC1</t>
+          <t>CC1CCN(c2cc(N3CCN(CCO)CC3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>O=C(c1ccc(/C=C/c2n[nH]c3ccccc23)cc1)N1CCNCC1</t>
+          <t>CC1CCN(c2cc(N3CCN(CCO)CC3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4079,66 +3767,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>332.41</v>
+        <v>437.54</v>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K49" t="n">
         <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>61.02</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>120</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL1908692</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Binding constant for CSF1R kinase domain</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>95.98</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ECF90&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4150,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL4878007</t>
+          <t>CHEMBL256893</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4158,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nc1ncc(-c2cc3ccccc3o2)c(N2CCC3(CCNC3=O)CC2)c1Cl</t>
+          <t>CN1CCN(Cc2ccc(Nc3ncc4c(=O)c(C(N)=O)cn(-c5ccc6c(c5)CCC6)c4n3)cc2)CC1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Nc1ncc(-c2cc3ccccc3o2)c(N2CCC3(CCNC3=O)CC2)c1Cl</t>
+          <t>CN1CCN(Cc2ccc(Nc3ncc4c(=O)c(C(N)=O)cn(-c5ccc6c(c5)CCC6)c4n3)cc2)CC1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4173,66 +3835,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>396.88</v>
+        <v>509.61</v>
       </c>
       <c r="H50" t="n">
         <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>84.39</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>166</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL4812449</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Inhibition of human FMS using KKKSPGEYVNIEFG as substrate incubated for 40 mins in presence of [gamma-33ATP] by scintillation counting based radiometry assay</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>109.38</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ECF20&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4244,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL608533</t>
+          <t>CHEMBL249138</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4252,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)C4CCCC4)cc3)ccc2c1Nc1ccccc1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)C4CCCC4)cc3)ccc2c1Nc1ccccc1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4267,66 +3903,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>570.65</v>
+        <v>435.53</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
         <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>77.73</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>330</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL1244774</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Binding affinity to CSF1R</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>85.08</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE0ECE40&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
